--- a/Rebalancing Cockpit.xlsx
+++ b/Rebalancing Cockpit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d970bc5955d3c3f/Dokumente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="341" documentId="13_ncr:1_{C717692A-96CB-420A-97E5-6F6B596B28BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C8D80A9-6A67-4C07-8365-0BBE6C4D9CDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDD60A1-346D-480A-B6B1-3C88694B708E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16635" windowWidth="29040" windowHeight="15720" xr2:uid="{958D6587-9F29-4932-A09B-F20D2A505552}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{958D6587-9F29-4932-A09B-F20D2A505552}"/>
   </bookViews>
   <sheets>
     <sheet name="Rebalancing Cockpit" sheetId="3" r:id="rId1"/>
@@ -2676,10 +2676,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3B38C79-F9E5-4609-A30F-B9ABE23C68CD}" name="Tabelle3" displayName="Tabelle3" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H6" xr:uid="{C3B38C79-F9E5-4609-A30F-B9ABE23C68CD}"/>
@@ -2698,9 +2694,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2738,7 +2734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2844,7 +2840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2986,7 +2982,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3000,7 +2996,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3304,7 +3300,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="413" yWindow="398" count="11">
-    <dataValidation type="decimal" showInputMessage="1" promptTitle="Momentum" prompt="Enter here what percentage of your equities should pursue a value strategy!" sqref="B6" xr:uid="{C229902E-3A1D-4A50-8A94-10C63C561FA3}">
+    <dataValidation type="decimal" showInputMessage="1" promptTitle="Momentum" prompt="Enter here what percentage of your equities should pursue a momentum strategy!" sqref="B6" xr:uid="{C229902E-3A1D-4A50-8A94-10C63C561FA3}">
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
